--- a/data/trans_dic/P44D-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44D-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1514557396479491</v>
+        <v>0.1264116725099345</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1686303087448003</v>
+        <v>0.1756873623160694</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1574282218059502</v>
+        <v>0.163914009689998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1628808847082652</v>
+        <v>0.1705237864580792</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1617406255370814</v>
+        <v>0.1692568905583355</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1565361362364315</v>
+        <v>0.1560314313633856</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2191930554166769</v>
+        <v>0.2271308576584884</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2396292682867673</v>
+        <v>0.2224525295907553</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.177767328617606</v>
+        <v>0.1763957366074468</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6773253907149015</v>
+        <v>0.6648084266665527</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5531322017732309</v>
+        <v>0.55649242994841</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2921575747099136</v>
+        <v>0.2939474431405945</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7013276850369835</v>
+        <v>0.7341312809931513</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8264805316456314</v>
+        <v>0.8255015159386323</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2916722270104102</v>
+        <v>0.2997631322216114</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6275907718469778</v>
+        <v>0.606877508144412</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5768752616707096</v>
+        <v>0.5538229325047124</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2784944277434802</v>
+        <v>0.2753922198544966</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.3107098087233673</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1803072940744394</v>
+        <v>0.1803072940744393</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.4076555128837553</v>
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1439738434660663</v>
+        <v>0.1415774079768852</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1512399596340269</v>
+        <v>0.1490745861203906</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1074444776316522</v>
+        <v>0.1116521360212492</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -799,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08308483257112542</v>
+        <v>0.0789945687778265</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2015600863010006</v>
+        <v>0.1894254879095462</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1474629938353852</v>
+        <v>0.1607873878897902</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1163998038409027</v>
+        <v>0.118401713473615</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.708645034176969</v>
+        <v>0.6984154441935788</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5100088306332338</v>
+        <v>0.5078392474042862</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2681178792002953</v>
+        <v>0.2717305865541865</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8695867696538419</v>
+        <v>0.880179681948057</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1</v>
+        <v>0.7458148773172116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2302134052120095</v>
+        <v>0.2231715113879282</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6414779505394242</v>
+        <v>0.6554134414129283</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4850247406038867</v>
+        <v>0.4898154921371091</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2312176126472347</v>
+        <v>0.2249445508106148</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.09949786172680786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.06500911151011532</v>
+        <v>0.06500911151011531</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.3519693599576009</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.05732917395529472</v>
+        <v>0.0573291739552947</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.1199746082444648</v>
@@ -882,7 +882,7 @@
         <v>0.07991962043383691</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.06283872487958955</v>
+        <v>0.06283872487958957</v>
       </c>
     </row>
     <row r="11">
@@ -896,26 +896,26 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03008451944540078</v>
+        <v>0.03093477266505198</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02778270835060707</v>
+        <v>0.02633684728944924</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09004671405628602</v>
+        <v>0.08869523996697272</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.01805426211392492</v>
+        <v>0.01834743407542924</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04563786069310325</v>
+        <v>0.02604350443393837</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02351145036454783</v>
+        <v>0.02334690582401963</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03129518741422463</v>
+        <v>0.03309927739942017</v>
       </c>
     </row>
     <row r="12">
@@ -926,29 +926,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1754695923381455</v>
+        <v>0.1753436317402729</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.278873939845196</v>
+        <v>0.2436560981815201</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1289391684590559</v>
+        <v>0.1250216493618405</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.748856287334187</v>
+        <v>0.7119984952585056</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.1403458715136069</v>
+        <v>0.153267352197783</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2789168618819003</v>
+        <v>0.2745587935688679</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1986260887895974</v>
+        <v>0.1999867349725477</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1090237540521923</v>
+        <v>0.1114365913704168</v>
       </c>
     </row>
     <row r="13">
@@ -987,7 +987,7 @@
         <v>0.04635835962145003</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.02823355483221492</v>
+        <v>0.02823355483221491</v>
       </c>
     </row>
     <row r="14">
@@ -1002,21 +1002,21 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004181743415181865</v>
+        <v>0.006818456399933995</v>
       </c>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01862300633292501</v>
+        <v>0.01927343761058937</v>
       </c>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.01397118257080373</v>
+        <v>0.01400679696753251</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01437162509732636</v>
+        <v>0.01334076638880646</v>
       </c>
     </row>
     <row r="15">
@@ -1028,24 +1028,24 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.151359347555871</v>
+        <v>0.1341835883316929</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04874686420861468</v>
+        <v>0.04618543075052037</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>0.2387171479392574</v>
+        <v>0.2623305851129842</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0841412531071886</v>
+        <v>0.0914241094779286</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.1151308258039076</v>
+        <v>0.1279524329676025</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0495024760053816</v>
+        <v>0.04891270827641638</v>
       </c>
     </row>
     <row r="16">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.003285265965254293</v>
+        <v>0.003285265965254292</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.08388716635820884</v>
@@ -1123,18 +1123,18 @@
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.3352132521850286</v>
+        <v>0.342589753161181</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.0166579441504744</v>
+        <v>0.01876612008680758</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.278386569679811</v>
+        <v>0.2553686630400744</v>
       </c>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>0.01164862045208042</v>
+        <v>0.009824603768373753</v>
       </c>
     </row>
     <row r="19">
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03083669276526066</v>
+        <v>0.03124606623099551</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0202995198480078</v>
+        <v>0.02049170156788094</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03083669276526066</v>
+        <v>0.03124606623099551</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01984864692624218</v>
+        <v>0.02129841492498169</v>
       </c>
     </row>
     <row r="21">
@@ -1212,22 +1212,22 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.28202728103923</v>
+        <v>0.289150396588903</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.294008719890032</v>
+        <v>0.2957265860079754</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07192042657249305</v>
+        <v>0.07357690479513493</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.28202728103923</v>
+        <v>0.289150396588903</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.294008719890032</v>
+        <v>0.2957265860079754</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07818546207356807</v>
+        <v>0.07487693676649788</v>
       </c>
     </row>
     <row r="22">
@@ -1266,7 +1266,7 @@
         <v>0.1331918402265282</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.08622372327790075</v>
+        <v>0.08622372327790076</v>
       </c>
     </row>
     <row r="23">
@@ -1277,31 +1277,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06786992046948946</v>
+        <v>0.06849935987186968</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09684172350371255</v>
+        <v>0.09425805024546974</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07759891296472855</v>
+        <v>0.07713698387977175</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1046246241207659</v>
+        <v>0.1021525472155045</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0602861010860622</v>
+        <v>0.06129336520077826</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05582356771958742</v>
+        <v>0.05594499071097223</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09963867063287986</v>
+        <v>0.1045013887198288</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0963000485316079</v>
+        <v>0.09389164175154646</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07361250701997633</v>
+        <v>0.07286725833846504</v>
       </c>
     </row>
     <row r="24">
@@ -1312,31 +1312,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2267252243656264</v>
+        <v>0.2149385206294889</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.211324891134571</v>
+        <v>0.201887416071744</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1221338822643868</v>
+        <v>0.1233478614454685</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2731389129185585</v>
+        <v>0.2683447828119877</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.197137697316621</v>
+        <v>0.1930408167183986</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09135200984839847</v>
+        <v>0.09082786435065018</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2066952955218107</v>
+        <v>0.2154780005164692</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1798063556285448</v>
+        <v>0.1769781249801828</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1047334717507707</v>
+        <v>0.0998891788692995</v>
       </c>
     </row>
     <row r="25">
@@ -1567,31 +1567,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3056</v>
+        <v>2551</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4899</v>
+        <v>5104</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21683</v>
+        <v>22576</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2178</v>
+        <v>2281</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1794</v>
+        <v>1877</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13006</v>
+        <v>12964</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7354</v>
+        <v>7621</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9618</v>
+        <v>8929</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>39255</v>
+        <v>38952</v>
       </c>
     </row>
     <row r="7">
@@ -1602,31 +1602,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13666</v>
+        <v>13414</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16068</v>
+        <v>16166</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40239</v>
+        <v>40486</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9380</v>
+        <v>9818</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9165</v>
+        <v>9154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>24234</v>
+        <v>24907</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21057</v>
+        <v>20362</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>23155</v>
+        <v>22229</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>61497</v>
+        <v>60812</v>
       </c>
     </row>
     <row r="8">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2185</v>
+        <v>2149</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3925</v>
+        <v>3868</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9237</v>
+        <v>9599</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -1726,16 +1726,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4613</v>
+        <v>4386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4523</v>
+        <v>4250</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4467</v>
+        <v>4871</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>16470</v>
+        <v>16753</v>
       </c>
     </row>
     <row r="11">
@@ -1746,31 +1746,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10756</v>
+        <v>10601</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13235</v>
+        <v>13178</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23051</v>
+        <v>23362</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6313</v>
+        <v>6390</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4343</v>
+        <v>3239</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12782</v>
+        <v>12391</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14393</v>
+        <v>14706</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14693</v>
+        <v>14838</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>32717</v>
+        <v>31829</v>
       </c>
     </row>
     <row r="12">
@@ -1858,26 +1858,26 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>903</v>
+        <v>929</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2540</v>
+        <v>2408</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>982</v>
+        <v>967</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1834</v>
+        <v>1047</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3989</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="15">
@@ -1888,29 +1888,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5139</v>
+        <v>5135</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8371</v>
+        <v>7314</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11790</v>
+        <v>11432</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8164</v>
+        <v>7762</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>5055</v>
+        <v>5521</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11210</v>
+        <v>11035</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7423</v>
+        <v>7474</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13896</v>
+        <v>14203</v>
       </c>
     </row>
     <row r="16">
@@ -1999,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>729</v>
+        <v>1188</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1742</v>
+        <v>1802</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3848</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="19">
@@ -2025,24 +2025,24 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>7326</v>
+        <v>6495</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8494</v>
+        <v>8048</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="n">
-        <v>5482</v>
+        <v>6024</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7869</v>
+        <v>8550</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>8216</v>
+        <v>9131</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13256</v>
+        <v>13098</v>
       </c>
     </row>
     <row r="20">
@@ -2155,18 +2155,18 @@
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>9027</v>
+        <v>9226</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>2009</v>
+        <v>2264</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>10161</v>
+        <v>9320</v>
       </c>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="n">
-        <v>2271</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="24">
@@ -2253,19 +2253,19 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1123</v>
+        <v>1137</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2697</v>
+        <v>2723</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1123</v>
+        <v>1137</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2714</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="27">
@@ -2279,22 +2279,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>9612</v>
+        <v>9855</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>10703</v>
+        <v>10765</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9557</v>
+        <v>9777</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9612</v>
+        <v>9855</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10703</v>
+        <v>10765</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>10690</v>
+        <v>10238</v>
       </c>
     </row>
     <row r="28">
@@ -2379,31 +2379,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>7649</v>
+        <v>7720</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15258</v>
+        <v>14851</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>44045</v>
+        <v>43783</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>11302</v>
+        <v>11035</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>6486</v>
+        <v>6595</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>29121</v>
+        <v>29184</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>21993</v>
+        <v>23066</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>25534</v>
+        <v>24896</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>80182</v>
+        <v>79371</v>
       </c>
     </row>
     <row r="31">
@@ -2414,31 +2414,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>25553</v>
+        <v>24225</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>33296</v>
+        <v>31809</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>69323</v>
+        <v>70012</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>29504</v>
+        <v>28987</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>21211</v>
+        <v>20770</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>47654</v>
+        <v>47381</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>45623</v>
+        <v>47562</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>47676</v>
+        <v>46926</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>114081</v>
+        <v>108804</v>
       </c>
     </row>
     <row r="32">
